--- a/time_results.xlsx
+++ b/time_results.xlsx
@@ -55,25 +55,25 @@
     <t>RST</t>
   </si>
   <si>
+    <t>MSC</t>
+  </si>
+  <si>
     <t>FSH</t>
   </si>
   <si>
-    <t>MSC</t>
-  </si>
-  <si>
     <t>BCN</t>
   </si>
   <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
     <t>LND</t>
-  </si>
-  <si>
-    <t>MDR</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>PRS</t>
   </si>
   <si>
     <t>GJN</t>
@@ -490,22 +490,22 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>345.8308</v>
+        <v>386.5587</v>
       </c>
       <c r="D4">
-        <v>5.1412</v>
+        <v>4.7858</v>
       </c>
       <c r="E4">
-        <v>0.3137505054473877</v>
+        <v>0.3189404010772705</v>
       </c>
       <c r="F4">
-        <v>37.14575386047363</v>
+        <v>179.7964928150177</v>
       </c>
       <c r="G4">
-        <v>3345.191141366959</v>
+        <v>4198.602324008942</v>
       </c>
       <c r="H4">
-        <v>992.1567485332489</v>
+        <v>9970.989691495895</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -514,22 +514,22 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>386.5587</v>
+        <v>345.8308</v>
       </c>
       <c r="D5">
-        <v>4.7858</v>
+        <v>5.1412</v>
       </c>
       <c r="E5">
-        <v>0.3189404010772705</v>
+        <v>0.3137505054473877</v>
       </c>
       <c r="F5">
-        <v>179.7964928150177</v>
+        <v>37.14575386047363</v>
       </c>
       <c r="G5">
-        <v>4198.602324008942</v>
+        <v>3345.191141366959</v>
       </c>
       <c r="H5">
-        <v>9970.989691495895</v>
+        <v>992.1567485332489</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -564,22 +564,22 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>43.1859</v>
+        <v>100.5543</v>
       </c>
       <c r="D7">
-        <v>2.1179</v>
+        <v>4.3565</v>
       </c>
       <c r="E7">
-        <v>0.1640818119049072</v>
+        <v>0.3240346908569336</v>
       </c>
       <c r="F7">
-        <v>35.80299949645996</v>
+        <v>9.554208993911743</v>
       </c>
       <c r="G7">
-        <v>118.9589469432831</v>
+        <v>287.4131686687469</v>
       </c>
       <c r="H7">
-        <v>2607.105662822723</v>
+        <v>2935.139235258102</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,22 +588,22 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>100.5543</v>
+        <v>52.8296</v>
       </c>
       <c r="D8">
-        <v>4.3565</v>
+        <v>3.4475</v>
       </c>
       <c r="E8">
-        <v>0.3240346908569336</v>
+        <v>0.3132350444793701</v>
       </c>
       <c r="F8">
-        <v>9.554208993911743</v>
+        <v>74.51171398162842</v>
       </c>
       <c r="G8">
-        <v>287.4131686687469</v>
+        <v>95.36306858062744</v>
       </c>
       <c r="H8">
-        <v>2935.139235258102</v>
+        <v>3480.940505504608</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -612,22 +612,22 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>52.8296</v>
+        <v>40.166</v>
       </c>
       <c r="D9">
-        <v>3.4475</v>
+        <v>2.481</v>
       </c>
       <c r="E9">
-        <v>0.3132350444793701</v>
+        <v>0.3036065101623535</v>
       </c>
       <c r="F9">
-        <v>74.51171398162842</v>
+        <v>119.6646575927734</v>
       </c>
       <c r="G9">
-        <v>95.36306858062744</v>
+        <v>62.45525884628296</v>
       </c>
       <c r="H9">
-        <v>3480.940505504608</v>
+        <v>2426.383432865143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -636,22 +636,22 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>40.166</v>
+        <v>43.1859</v>
       </c>
       <c r="D10">
-        <v>2.481</v>
+        <v>2.1179</v>
       </c>
       <c r="E10">
-        <v>0.3036065101623535</v>
+        <v>0.1640818119049072</v>
       </c>
       <c r="F10">
-        <v>119.6646575927734</v>
+        <v>35.80299949645996</v>
       </c>
       <c r="G10">
-        <v>62.45525884628296</v>
+        <v>118.9589469432831</v>
       </c>
       <c r="H10">
-        <v>2426.383432865143</v>
+        <v>2607.105662822723</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -659,55 +659,55 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>352.6678</v>
+        <v>28.6884</v>
       </c>
       <c r="D11">
-        <v>12.4069</v>
+        <v>1.0422</v>
       </c>
       <c r="E11">
-        <v>0.3015758991241455</v>
+        <v>0.3363080024719238</v>
       </c>
       <c r="F11">
-        <v>151.5743391513824</v>
+        <v>17.09086942672729</v>
       </c>
       <c r="G11">
-        <v>828.8893673419952</v>
+        <v>309.5013952255249</v>
       </c>
       <c r="H11">
-        <v>32373.4896941185</v>
+        <v>2998.131769657135</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>28.6884</v>
+        <v>352.6678</v>
       </c>
       <c r="D12">
-        <v>1.0422</v>
+        <v>12.4069</v>
       </c>
       <c r="E12">
-        <v>0.3363080024719238</v>
+        <v>0.3015758991241455</v>
       </c>
       <c r="F12">
-        <v>17.09086942672729</v>
+        <v>151.5743391513824</v>
       </c>
       <c r="G12">
-        <v>309.5013952255249</v>
+        <v>828.8893673419952</v>
       </c>
       <c r="H12">
-        <v>2998.131769657135</v>
+        <v>32373.4896941185</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>411.1219</v>
@@ -731,7 +731,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>997.8453</v>
@@ -755,7 +755,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1439.7406</v>
